--- a/WorkBot/main/backend/ordering/OrderFiles/Performance Food/Performance Food_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Performance Food/Performance Food_Triphammer_20250704.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,432 +451,405 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CF124</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Half &amp; Half</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.78</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>277.80</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TN330</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Natalie's - Honey Tangerine</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.57</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.14</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TN374</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Natalie's - Lemonade</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18.60</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AH252</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natalie's - Orange Juice</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.50</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>122.50</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TN454</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Natalie's - Orange Mango</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CM230</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oat Milk</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.09</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AT104</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Simply - Orange</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>44.33</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>44.33</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T0948</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Almond Milk</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.74</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>178.70</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A3614</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Monin - Blackberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35.03</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35.03</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A4706</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Monin - Strawberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35.91</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35.91</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23978</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monin - Vanilla</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>35.21</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>70.42</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FV234</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Poland Spring - Sport Top</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV222</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spindrift - Half &amp; Half</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ED258</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spindrift - Lemon</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FB268</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mousse Cup - Chocolate</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FB270</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Roma - Tiramisu Plastic Cup</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>32.55</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>32.55</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
